--- a/dispersion_data.xlsx
+++ b/dispersion_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadibessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/20241216_meeting_notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadibessudo/Library/CloudStorage/GoogleDrive-gadibessudo@gmail.com/My Drive/Projects/University/Lab C/2025a/WaveParticleDuality/wave-particle-duality-experiment-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537833D-2128-1443-A859-DAB48E858F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05E11F-DD52-1447-9F4C-DDB43E5EEB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1B13B885-15DB-B340-AE80-EE0D226B88C8}"/>
+    <workbookView xWindow="5180" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{1B13B885-15DB-B340-AE80-EE0D226B88C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
